--- a/AutomationFramework/results/07102020/logs/interfaces_test_if_ethernet_test_if_ethernet_port_speed_logs.xlsx
+++ b/AutomationFramework/results/07102020/logs/interfaces_test_if_ethernet_test_if_ethernet_port_speed_logs.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,7 +501,7 @@
                     &lt;filter&gt;
                         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
                         &lt;interface&gt;
-                        &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                        &lt;name&gt;1/1/1&lt;/name&gt;
                         &lt;/interface&gt;
                         &lt;/interfaces&gt;
                     &lt;/filter&gt;
@@ -443,18 +511,25 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:d7d227f4-65f5-42f4-a29a-c5ad97666379" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:93d20dc6-315e-4c50-9c83-46592205cddd" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;data&gt;
         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
             &lt;interface&gt;
-                &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
                 &lt;config&gt;
-                    &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
                     &lt;type&gt;ethernetCsmacd&lt;/type&gt;
                     &lt;mtu&gt;1500&lt;/mtu&gt;
-                    &lt;description&gt;TestSamier 2&lt;/description&gt;
+                    &lt;description&gt;test&lt;/description&gt;
                     &lt;enabled&gt;true&lt;/enabled&gt;
                 &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;duplex-mode&gt;FULL&lt;/duplex-mode&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
             &lt;/interface&gt;
         &lt;/interfaces&gt;
     &lt;/data&gt;
@@ -470,10 +545,10 @@
     &lt;config&gt;
       &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
         &lt;interface&gt;
-          &lt;name&gt;1/1/c11/2&lt;/name&gt;
+          &lt;name&gt;1/1/1&lt;/name&gt;
           &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
             &lt;config&gt;
-              &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+              &lt;port-speed&gt;SPEED_1GB&lt;/port-speed&gt;
             &lt;/config&gt;
           &lt;/ethernet&gt;
         &lt;/interface&gt;
@@ -482,8 +557,46 @@
   &lt;/edit-config&gt;</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>- Response of edit-config: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:e7175072-9d61-4576-abca-7b810c070b4f" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;ok/&gt;
+&lt;/rpc-reply&gt; 
+ - Response of commit: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:4b64ffd3-9aa4-41f0-a967-c06c8f358bad" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;ok/&gt;
+&lt;/rpc-reply&gt;</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:4879bc0c-c8bf-4f6a-a3d8-e12475229557" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;data&gt;
+        &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
+            &lt;interface&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
+                &lt;config&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
+                    &lt;type&gt;ethernetCsmacd&lt;/type&gt;
+                    &lt;mtu&gt;1500&lt;/mtu&gt;
+                    &lt;description&gt;test&lt;/description&gt;
+                    &lt;enabled&gt;true&lt;/enabled&gt;
+                &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;duplex-mode&gt;FULL&lt;/duplex-mode&gt;
+                        &lt;port-speed&gt;SPEED_1GB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
+            &lt;/interface&gt;
+        &lt;/interfaces&gt;
+    &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
